--- a/2023/week10/data.xlsx
+++ b/2023/week10/data.xlsx
@@ -114,10 +114,10 @@
     <t>born</t>
   </si>
   <si>
-    <t>value</t>
+    <t>year</t>
   </si>
   <si>
-    <t>year</t>
+    <t>people</t>
   </si>
 </sst>
 </file>
@@ -503,7 +503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D730"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -518,10 +520,10 @@
         <v>30</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
